--- a/biology/Zoologie/Barsboldia/Barsboldia.xlsx
+++ b/biology/Zoologie/Barsboldia/Barsboldia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Barsboldia sicinskii
 Barsboldia est un genre éteint de dinosaures ornithopodes de la famille des Hadrosauridae qui a vécu au Crétacé supérieur.
-Un seul spécimen fossile, très partiel, a été découvert dans la formation de Nemegt, dans le sud de la Mongolie[1],[2]. Il est daté du sommet du Crétacé supérieur, du Campanien ou du Maastrichtien, soit il y a environ entre 83,6 à 66,0 millions d'années[1].
-Barsboldia pourrait appartenir à la sous famille des Saurolophinae[2], mais la validité du genre n'est pas assurée[3].
-Une seule espèce est rattachée au genre : Barsboldia sicinskii, décrite en 1981 par Teresa Maryańska et Halszka Osmólska[1].
+Un seul spécimen fossile, très partiel, a été découvert dans la formation de Nemegt, dans le sud de la Mongolie,. Il est daté du sommet du Crétacé supérieur, du Campanien ou du Maastrichtien, soit il y a environ entre 83,6 à 66,0 millions d'années.
+Barsboldia pourrait appartenir à la sous famille des Saurolophinae, mais la validité du genre n'est pas assurée.
+Une seule espèce est rattachée au genre : Barsboldia sicinskii, décrite en 1981 par Teresa Maryańska et Halszka Osmólska.
 </t>
         </is>
       </c>
@@ -515,9 +527,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre a été donné en l'honneur du paléontologue mongol Rinchen Barsbold. L'épithète spécifique, sicinskii, honore Wojciech Sicihski, assistant à l'institut de paléontologie de l'Académie polonaise des sciences et impliqué dans la préparation du spécimen type[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre a été donné en l'honneur du paléontologue mongol Rinchen Barsbold. L'épithète spécifique, sicinskii, honore Wojciech Sicihski, assistant à l'institut de paléontologie de l'Académie polonaise des sciences et impliqué dans la préparation du spécimen type.
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un seul fossile, référencé ZPAL MgD-I/110 est connu. Il est constitué principalement d'un ensemble articulé de vertèbres : 9 dorsales postérieures, 9 sacrées fusionnées et 15 caudales, auquel s'ajoutent un ilium gauche, un pubis droit et des fragments de membres et de côtes[1].
-Les épines neurales sont particulièrement longues, surtout pour la partie centrale des vertèbres sacrées ; elles peuvent dépasser 63 centimètres pour une longueur totale des vertèbres de 96 centimètres. Ce caractère n'est connu que chez le lambéosauriné Hypacrosaurus altispinus[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un seul fossile, référencé ZPAL MgD-I/110 est connu. Il est constitué principalement d'un ensemble articulé de vertèbres : 9 dorsales postérieures, 9 sacrées fusionnées et 15 caudales, auquel s'ajoutent un ilium gauche, un pubis droit et des fragments de membres et de côtes.
+Les épines neurales sont particulièrement longues, surtout pour la partie centrale des vertèbres sacrées ; elles peuvent dépasser 63 centimètres pour une longueur totale des vertèbres de 96 centimètres. Ce caractère n'est connu que chez le lambéosauriné Hypacrosaurus altispinus.
 </t>
         </is>
       </c>
@@ -580,11 +596,16 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phylogénie
-Les inventrices du genre, Teresa Maryańska et Halszka Osmólska, le décrivent comme un hadrosauridé de la sous-famille des lambéosaurinés, les dinosaures à « bec de canard » et à crête creuse, bien qu'aucun crâne n'ait été retrouvé. Il est rapproché du genre Hypacrosaurus[1],[4].
-Cependant, en l'absence de crâne, le genre est considéré comme douteux (nomen dubium) par David B. Norman en 2000 ou comme un lambéosauriné à placement incertain en 2004 par Jack Horner[5].
-En 2011, Albert Prieto-Márquez reprend la description de Barsboldia et suggère qu'il s'agit d'un genre valide de saurolophiné basal[2].
-Cependant ce même auteur et ses collègues l’omettent dans leur grande synthèse phylogénétique des hadrosauridés en 2016[3].
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inventrices du genre, Teresa Maryańska et Halszka Osmólska, le décrivent comme un hadrosauridé de la sous-famille des lambéosaurinés, les dinosaures à « bec de canard » et à crête creuse, bien qu'aucun crâne n'ait été retrouvé. Il est rapproché du genre Hypacrosaurus,.
+Cependant, en l'absence de crâne, le genre est considéré comme douteux (nomen dubium) par David B. Norman en 2000 ou comme un lambéosauriné à placement incertain en 2004 par Jack Horner.
+En 2011, Albert Prieto-Márquez reprend la description de Barsboldia et suggère qu'il s'agit d'un genre valide de saurolophiné basal.
+Cependant ce même auteur et ses collègues l’omettent dans leur grande synthèse phylogénétique des hadrosauridés en 2016.
 </t>
         </is>
       </c>
